--- a/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
+++ b/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
+++ b/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
+++ b/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
+++ b/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
+++ b/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -840,7 +840,8 @@
     <t>604: terminologyMaps using VF_encounterProblemStatus on V POV - MODIFIER (9000010.07-.06)</t>
   </si>
   <si>
-    <t>Outpat.VDiagnosis.Modifier,Outpat.WorkloadVDiagnosis.Modifier</t>
+    <t>Outpat.VDiagnosis.Modifier
+Outpat.WorkloadVDiagnosis.Modifier</t>
   </si>
   <si>
     <t>Diagnosis.Diagnosis[CodeTableDetail.Diagnosis].OriginalText</t>
@@ -1140,14 +1141,22 @@
     <t>1613: source value based on V POV - POV &gt; ICD DIAGNOSIS - CODE NUMBER (9000010.07-.01 &gt; 80-.01)</t>
   </si>
   <si>
-    <t>Outpat.VDiagnosis.ICDIEN,Outpat.WorkloadVDiagnosis.ICDIEN
-Dim.ICD10.ICD10Code,Dim.ICD9.ICD9Code</t>
-  </si>
-  <si>
-    <t>Diagnosis.Diagnosis,Diagnosis.Diagnosis[CodeTableDetail.Diagnosis].Code</t>
-  </si>
-  <si>
-    <t>visit.icd [m] (&gt;80-.01),visit.icd [m] (&gt;80-1.1),visit.icd [m] (&gt;80-10),visit.reason (&gt;80-.01),visit.reason (&gt;80-1.1),visit.reason (&gt;80-10)</t>
+    <t>Outpat.VDiagnosis.ICDIEN
+Outpat.WorkloadVDiagnosis.ICDIEN
+Dim.ICD10.ICD10Code
+Dim.ICD9.ICD9Code</t>
+  </si>
+  <si>
+    <t>Diagnosis.Diagnosis
+Diagnosis.Diagnosis[CodeTableDetail.Diagnosis].Code</t>
+  </si>
+  <si>
+    <t>visit.icd [m] (&gt;80-.01)
+visit.icd [m] (&gt;80-1.1)
+visit.icd [m] (&gt;80-10)
+visit.reason (&gt;80-.01)
+visit.reason (&gt;80-1.1)
+visit.reason (&gt;80-10)</t>
   </si>
   <si>
     <t>C*E.1</t>
@@ -1282,7 +1291,8 @@
     <t>1611: reference based on V POV - PATIENT NAME &gt; PATIENT/IHS - NAME (9000010.07-.02 &gt; 9000001-.01)</t>
   </si>
   <si>
-    <t>Outpat.VDiagnosis.PatientIEN,Outpat.WorkloadVDiagnosis.PatientIEN</t>
+    <t>Outpat.VDiagnosis.PatientIEN
+Outpat.WorkloadVDiagnosis.PatientIEN</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1316,10 +1326,18 @@
     <t>368: source value based on V POV - VISIT (9000010.07-.03)</t>
   </si>
   <si>
-    <t>Outpat.VDiagnosis.VisitDateTime,Outpat.VDiagnosis.VisitIEN,Outpat.WorkloadVDiagnosis.VisitDateTime,Outpat.WorkloadVDiagnosis.VisitIEN</t>
-  </si>
-  <si>
-    <t>Diagnosis.EncounterNumber,Diagnosis.EnteredAt,Diagnosis.EnteredBy,Diagnosis.EnteredOn,Diagnosis.FromTime,Diagnosis.ToTime</t>
+    <t>Outpat.VDiagnosis.VisitDateTime
+Outpat.VDiagnosis.VisitIEN
+Outpat.WorkloadVDiagnosis.VisitDateTime
+Outpat.WorkloadVDiagnosis.VisitIEN</t>
+  </si>
+  <si>
+    <t>Diagnosis.EncounterNumber
+Diagnosis.EnteredAt
+Diagnosis.EnteredBy
+Diagnosis.EnteredOn
+Diagnosis.FromTime
+Diagnosis.ToTime</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1375,7 +1393,8 @@
     <t>370: source value based on V POV - DATE OF INJURY (9000010.07-.13)</t>
   </si>
   <si>
-    <t>Outpat.VDiagnosis.InjuryDateTime,Outpat.WorkloadVDiagnosis.InjuryDateTime</t>
+    <t>Outpat.VDiagnosis.InjuryDateTime
+Outpat.WorkloadVDiagnosis.InjuryDateTime</t>
   </si>
   <si>
     <t>Diagnosis.OnsetTime</t>
@@ -1424,15 +1443,28 @@
     <t>372: source value based on V POV - VISIT &gt; VISIT - VISIT/ADMIT DATE&amp;TIME (9000010.07-.03 &gt; 9000010-.01)</t>
   </si>
   <si>
-    <t>Outpat.VDiagnosis.VisitDateTime,Outpat.VDiagnosis.VisitIEN,Outpat.WorkloadVDiagnosis.VisitDateTime,Outpat.WorkloadVDiagnosis.VisitIEN
-Immun.ImmunizationContraRefusalEvent.VisitDateTime,Outpat.Visit.VisitDateTime,Outpat.VisitLogic.VisitDateTime,Outpat.Workload.VisitDateTime</t>
-  </si>
-  <si>
-    <t>Diagnosis.EncounterNumber,Diagnosis.EnteredAt,Diagnosis.EnteredBy,Diagnosis.EnteredOn,Diagnosis.FromTime,Diagnosis.ToTime
-Encounter.ConsultingClinician[CareProvider].Description,Encounter.ConsultingClinician[CareProvider].Name</t>
-  </si>
-  <si>
-    <t>visit.dateTime,visit.visitString</t>
+    <t>Outpat.VDiagnosis.VisitDateTime
+Outpat.VDiagnosis.VisitIEN
+Outpat.WorkloadVDiagnosis.VisitDateTime
+Outpat.WorkloadVDiagnosis.VisitIEN
+Immun.ImmunizationContraRefusalEvent.VisitDateTime
+Outpat.Visit.VisitDateTime
+Outpat.VisitLogic.VisitDateTime
+Outpat.Workload.VisitDateTime</t>
+  </si>
+  <si>
+    <t>Diagnosis.EncounterNumber
+Diagnosis.EnteredAt
+Diagnosis.EnteredBy
+Diagnosis.EnteredOn
+Diagnosis.FromTime
+Diagnosis.ToTime
+Encounter.ConsultingClinician[CareProvider].Description
+Encounter.ConsultingClinician[CareProvider].Name</t>
+  </si>
+  <si>
+    <t>visit.dateTime
+visit.visitString</t>
   </si>
   <si>
     <t>REL-11</t>
@@ -1460,7 +1492,8 @@
     <t>1833: reference based on V POV - ENCOUNTER PROVIDER (9000010.07-1204)</t>
   </si>
   <si>
-    <t>Outpat.VDiagnosis.EncounterProviderIEN,Outpat.WorkloadVDiagnosis.EncounterProviderIEN</t>
+    <t>Outpat.VDiagnosis.EncounterProviderIEN
+Outpat.WorkloadVDiagnosis.EncounterProviderIEN</t>
   </si>
   <si>
     <t>Diagnosis.DiagnosingClinician</t>
@@ -2046,9 +2079,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="87.34375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="117.03125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="104.8203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="106.20703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.8125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="49.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="255.0" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="58.4765625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
+++ b/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
+++ b/docs/StructureDefinition-ConditionEncounterDiagnosis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
